--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value597.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value597.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.082650301532941</v>
+        <v>1.070284843444824</v>
       </c>
       <c r="B1">
-        <v>1.199787950782491</v>
+        <v>1.625010251998901</v>
       </c>
       <c r="C1">
-        <v>1.164780141502286</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.242638645564609</v>
+        <v>1.877082347869873</v>
       </c>
       <c r="E1">
-        <v>1.488407304350524</v>
+        <v>1.159711360931396</v>
       </c>
     </row>
   </sheetData>
